--- a/data/trans_orig/P14A25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0492E91A-1176-487D-A485-DFBBEB7D0C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E39D19C-1432-4392-ABE8-0FF2C67A3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2A21C58-5445-4060-B777-4F9BE110C2E8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F052740-6294-49A7-BE9A-16905045299F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,7 +84,7 @@
     <t>84,61%</t>
   </si>
   <si>
-    <t>34,61%</t>
+    <t>32,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,16 +99,16 @@
     <t>67,63%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>65,39%</t>
+    <t>67,5%</t>
   </si>
   <si>
     <t>65,43%</t>
@@ -117,10 +117,10 @@
     <t>32,37%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -132,37 +132,37 @@
     <t>91,58%</t>
   </si>
   <si>
-    <t>58,64%</t>
+    <t>64,65%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>44,36%</t>
+    <t>44,32%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>69,46%</t>
+    <t>68,09%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>41,36%</t>
+    <t>35,35%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>55,64%</t>
+    <t>55,68%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>30,54%</t>
+    <t>31,91%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -177,7 +177,7 @@
     <t>90,61%</t>
   </si>
   <si>
-    <t>52,01%</t>
+    <t>56,19%</t>
   </si>
   <si>
     <t>0%</t>
@@ -192,7 +192,7 @@
     <t>9,39%</t>
   </si>
   <si>
-    <t>47,99%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -213,49 +213,49 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>79,93%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -285,157 +285,157 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>38,48%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>68,29%</t>
+    <t>61,84%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>61,52%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>31,71%</t>
+    <t>38,16%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>38,89%</t>
+    <t>36,9%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>66,76%</t>
+    <t>66,58%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>61,11%</t>
+    <t>63,1%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>33,24%</t>
+    <t>33,42%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59E7E4B-67CC-4786-BB53-B3F9A863282A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E1ABB-AFE6-460F-8554-F87F273F559D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7FE8F9-066A-45AA-BBD9-9A27547E5734}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C9180-451C-4D91-847E-5FF36B3CCBD1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A25-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E39D19C-1432-4392-ABE8-0FF2C67A3154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A92E82CD-90B1-425D-8F73-B4B39F8CC824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F052740-6294-49A7-BE9A-16905045299F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{782A2F9A-186B-4292-860E-262534F8D866}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -78,13 +78,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>84,61%</t>
   </si>
   <si>
-    <t>32,5%</t>
+    <t>35,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,16 +99,16 @@
     <t>67,63%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>15,39%</t>
   </si>
   <si>
-    <t>67,5%</t>
+    <t>64,52%</t>
   </si>
   <si>
     <t>65,43%</t>
@@ -117,55 +117,55 @@
     <t>32,37%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>64,65%</t>
+    <t>64,39%</t>
   </si>
   <si>
     <t>87,56%</t>
   </si>
   <si>
-    <t>44,32%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>89,87%</t>
   </si>
   <si>
-    <t>68,09%</t>
+    <t>69,3%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>35,35%</t>
+    <t>35,61%</t>
   </si>
   <si>
     <t>12,44%</t>
   </si>
   <si>
-    <t>55,68%</t>
+    <t>55,83%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -177,7 +177,7 @@
     <t>90,61%</t>
   </si>
   <si>
-    <t>56,19%</t>
+    <t>54,04%</t>
   </si>
   <si>
     <t>0%</t>
@@ -192,7 +192,7 @@
     <t>9,39%</t>
   </si>
   <si>
-    <t>43,81%</t>
+    <t>45,96%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -213,55 +213,55 @@
     <t>94,12%</t>
   </si>
   <si>
-    <t>79,93%</t>
+    <t>81,51%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>18,49%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por otros problemas mentales en 2015 (Tasa respuesta: 0,91%)</t>
+    <t>Población que recibe medicación o terapia por otros problemas mentales en 2016 (Tasa respuesta: 0,91%)</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -285,157 +285,157 @@
     <t>87,45%</t>
   </si>
   <si>
-    <t>38,48%</t>
+    <t>49,38%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>61,84%</t>
+    <t>61,67%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>61,52%</t>
+    <t>50,62%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>38,16%</t>
+    <t>38,33%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>36,9%</t>
+    <t>38,25%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>66,58%</t>
+    <t>65,61%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>63,1%</t>
+    <t>61,75%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>33,42%</t>
+    <t>34,39%</t>
   </si>
   <si>
     <t>60,73%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>80,04%</t>
   </si>
   <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>72,64%</t>
   </si>
   <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>39,27%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
   </si>
   <si>
     <t>19,96%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>27,36%</t>
   </si>
   <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>84,06%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>87,38%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
 </sst>
 </file>
@@ -847,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74E1ABB-AFE6-460F-8554-F87F273F559D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6DEB93-767D-405F-A30A-7C8873A4BB3E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1892,7 +1892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C9180-451C-4D91-847E-5FF36B3CCBD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD0739B-0696-46BE-A8BC-C20B40323353}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
